--- a/Parts/BOM_Arduino_Spot_Welder_V4.xlsx
+++ b/Parts/BOM_Arduino_Spot_Welder_V4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{10CA496A-43A5-41C1-8B80-4C5FDD0D934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40924F78-DEB1-4242-8F49-58D0C8F270E5}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{10CA496A-43A5-41C1-8B80-4C5FDD0D934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5616AF22-7381-4BDB-BD45-8329A807B610}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-97" yWindow="-97" windowWidth="31259" windowHeight="17078" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>Quantity</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>IC socket 8 pole</t>
-  </si>
-  <si>
     <t>Arduino Nano</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>PCB connector 2pin</t>
   </si>
   <si>
-    <t>571-1-2199298-2</t>
-  </si>
-  <si>
     <t>750-CDBA160-G</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
   </si>
   <si>
     <t>942-IRFS7430TRL7PP</t>
-  </si>
-  <si>
-    <t>P2 MCP1407</t>
   </si>
   <si>
     <t xml:space="preserve">579-MCP1407-E/SN </t>
@@ -800,17 +791,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -836,25 +823,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -863,13 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -878,29 +847,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -913,9 +882,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -929,16 +895,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -1284,749 +1250,732 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G59"/>
+  <dimension ref="C1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="8.3828125" customWidth="1"/>
-    <col min="4" max="4" width="19.53515625" customWidth="1"/>
-    <col min="5" max="5" width="32.15234375" customWidth="1"/>
-    <col min="6" max="6" width="26.15234375" customWidth="1"/>
-    <col min="7" max="7" width="85.53515625" customWidth="1"/>
+    <col min="3" max="3" width="8.35546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="85.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="3:7" ht="26.2" x14ac:dyDescent="0.7">
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" ht="26.2" x14ac:dyDescent="0.7">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
-      <c r="E3" s="3" t="s">
+      <c r="F6" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="3:7" ht="35.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="8">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="8">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="8">
+        <v>10</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="8">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="8">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="3:7" ht="35.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="9">
+        <v>10</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="3:7" ht="35.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="21.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="46" t="s">
+      <c r="G35" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="23">
+        <v>1</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="23">
+        <v>1</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="9">
+      <c r="F37" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="8">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="10">
+      <c r="D39" s="17"/>
+      <c r="E39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="10">
+      <c r="D40" s="17"/>
+      <c r="E40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="8">
+        <v>6</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D44" s="17"/>
+      <c r="E44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="8">
+        <v>1</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="47"/>
-    </row>
-    <row r="16" spans="2:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="6" t="s">
+    </row>
+    <row r="47" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C48" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C49" s="8">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="47"/>
-    </row>
-    <row r="20" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="10">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="15">
-        <v>4</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="15">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="15">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="15">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="15">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="47"/>
-    </row>
-    <row r="28" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="15">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="10">
-        <v>10</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="10">
-        <v>10</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="47"/>
-    </row>
-    <row r="31" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="10">
-        <v>10</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="3:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="11">
-        <v>10</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="49"/>
-    </row>
-    <row r="33" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="3:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="31">
-        <v>1</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="31">
-        <v>1</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="10">
-        <v>1</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="10">
-        <v>8</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="10">
-        <v>2</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C42" s="10">
-        <v>6</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="10">
-        <v>1</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="39" t="s">
+    </row>
+    <row r="50" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="42">
+        <v>1</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="10">
-        <v>1</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="39" t="s">
+      <c r="F50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C45" s="10">
-        <v>2</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="10">
-        <v>2</v>
-      </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C47" s="15">
-        <v>1</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C48" s="15">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
+    </row>
+    <row r="51" spans="3:7" ht="35.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C49" s="15">
-        <v>2</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="15">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C51" s="51">
-        <v>1</v>
-      </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" s="54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="17">
-        <v>1</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="30"/>
-    </row>
-    <row r="54" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="30"/>
-    </row>
-    <row r="55" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="3:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="G51" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="3:7" ht="35.200000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="F8" r:id="rId4" display="http://www.mouser.de/Search/ProductDetail.aspx?R=PEC11L-4220F-S0015virtualkey65210000virtualkey652-PEC11L4220FS0015" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
@@ -2036,30 +1985,29 @@
     <hyperlink ref="F12" r:id="rId8" display="http://www.mouser.de/Search/ProductDetail.aspx?R=929974-01-04-RKvirtualkey51750000virtualkey517-974-01-04-RK" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="F13" r:id="rId9" display="http://www.mouser.de/Search/ProductDetail.aspx?R=22-28-4160virtualkey53810000virtualkey538-22-28-4160" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="F14" r:id="rId10" display="http://www.mouser.de/Search/ProductDetail.aspx?R=61900211121virtualkey51110000virtualkey710-61900211121" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F16" r:id="rId11" display="http://www.mouser.de/Search/ProductDetail.aspx?R=1-2199298-2virtualkey57100000virtualkey571-1-2199298-2" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F17" r:id="rId12" display="http://www.mouser.de/Search/ProductDetail.aspx?R=CDBA160-Gvirtualkey59960000virtualkey750-CDBA160-G" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F18" r:id="rId13" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MMSZ4687-E3-08virtualkey61370000virtualkey78-MMSZ4687-E3-08" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F21" r:id="rId15" display="http://www.mouser.de/Search/ProductDetail.aspx?R=SMAJ13A-13-Fvirtualkey62110000virtualkey621-SMAJ13A-13-F" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F22" r:id="rId16" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MKS2C041001F00MSSDvirtualkey24100000virtualkey505-MKS2C041001FMSSD" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F24" r:id="rId18" display="http://www.mouser.de/Search/ProductDetail.aspx?R=UWT1E471MNL1GSvirtualkey64700000virtualkey647-UWT1E471MNL1S" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F29" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F28" r:id="rId26" display="603-AC1206FR-071KL " xr:uid="{880B227E-4FAB-43B6-BD10-1AE9CDED43C0}"/>
-    <hyperlink ref="F20" r:id="rId27" display="576-5.0SMDJ13A " xr:uid="{9B1DF0E0-4468-4EAD-A7B0-A5CB52D6C8D2}"/>
-    <hyperlink ref="F25" r:id="rId28" xr:uid="{9213B893-DEBA-4E24-BF11-856B14724B0A}"/>
-    <hyperlink ref="F26" r:id="rId29" xr:uid="{0CC62A44-46D2-4B00-89DD-12FB1AD0274F}"/>
-    <hyperlink ref="F27" r:id="rId30" xr:uid="{7472A145-2B22-4926-B92F-8828019F0FE9}"/>
-    <hyperlink ref="G48" r:id="rId31" xr:uid="{89E1BEAE-542E-4076-BD32-9E02CBA1C14B}"/>
-    <hyperlink ref="G51" r:id="rId32" xr:uid="{69C473A2-7E4D-43FF-853E-19226093534D}"/>
+    <hyperlink ref="F16" r:id="rId11" display="http://www.mouser.de/Search/ProductDetail.aspx?R=CDBA160-Gvirtualkey59960000virtualkey750-CDBA160-G" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F17" r:id="rId12" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MMSZ4687-E3-08virtualkey61370000virtualkey78-MMSZ4687-E3-08" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F20" r:id="rId14" display="http://www.mouser.de/Search/ProductDetail.aspx?R=SMAJ13A-13-Fvirtualkey62110000virtualkey621-SMAJ13A-13-F" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F21" r:id="rId15" display="http://www.mouser.de/Search/ProductDetail.aspx?R=MKS2C041001F00MSSDvirtualkey24100000virtualkey505-MKS2C041001FMSSD" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F23" r:id="rId17" display="http://www.mouser.de/Search/ProductDetail.aspx?R=UWT1E471MNL1GSvirtualkey64700000virtualkey647-UWT1E471MNL1S" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F29" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F27" r:id="rId25" display="603-AC1206FR-071KL " xr:uid="{880B227E-4FAB-43B6-BD10-1AE9CDED43C0}"/>
+    <hyperlink ref="F19" r:id="rId26" xr:uid="{9B1DF0E0-4468-4EAD-A7B0-A5CB52D6C8D2}"/>
+    <hyperlink ref="F24" r:id="rId27" xr:uid="{9213B893-DEBA-4E24-BF11-856B14724B0A}"/>
+    <hyperlink ref="F25" r:id="rId28" xr:uid="{0CC62A44-46D2-4B00-89DD-12FB1AD0274F}"/>
+    <hyperlink ref="F26" r:id="rId29" xr:uid="{7472A145-2B22-4926-B92F-8828019F0FE9}"/>
+    <hyperlink ref="G47" r:id="rId30" xr:uid="{89E1BEAE-542E-4076-BD32-9E02CBA1C14B}"/>
+    <hyperlink ref="G50" r:id="rId31" xr:uid="{69C473A2-7E4D-43FF-853E-19226093534D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId33"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId32"/>
 </worksheet>
 </file>